--- a/MidExcersize/testcases/tc_figure.xlsx
+++ b/MidExcersize/testcases/tc_figure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Changsun Song\Desktop\알고리즘자격준비\git\MidExcersize\src\certi\memo\d0428\tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Changsun Song\Desktop\알고리즘자격준비\git\MidExcersize\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C354762-EEEE-4196-B9A0-B0CF3DE874FF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{87424E93-40B4-45F4-AC86-FB4B89AAA141}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15624" windowHeight="5892" activeTab="1" xr2:uid="{9D0D3AC8-B303-4CC9-987B-EC8B6BD560BB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15624" windowHeight="5892" xr2:uid="{9D0D3AC8-B303-4CC9-987B-EC8B6BD560BB}"/>
   </bookViews>
   <sheets>
     <sheet name="create" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="12">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,12 +51,31 @@
     <t>Layer - 0 (head.next.next)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>099B5</t>
+  </si>
+  <si>
+    <t>_1112</t>
+  </si>
+  <si>
+    <t>_1442</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +126,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,6 +665,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +770,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="941709" y="1345562"/>
-          <a:ext cx="4670197" cy="815004"/>
+          <a:ext cx="4670197" cy="823969"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1325,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006993DD-2A4D-4974-A7D4-5D3D1A1F5903}">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1341,45 +1441,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="M1" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="Y1" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
+      <c r="A1" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="M1" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="Y1" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B2" s="1">
@@ -1550,7 +1650,7 @@
       <c r="D5" s="10">
         <v>3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="82">
         <v>3</v>
       </c>
       <c r="F5" s="7">
@@ -1574,7 +1674,7 @@
       <c r="P5" s="46">
         <v>8</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="83" t="s">
         <v>0</v>
       </c>
       <c r="R5" s="13" t="s">
@@ -1583,7 +1683,7 @@
       <c r="Y5" s="45">
         <v>2</v>
       </c>
-      <c r="AC5" s="46">
+      <c r="AC5" s="84">
         <v>9</v>
       </c>
       <c r="AD5" s="46">
@@ -1600,7 +1700,7 @@
       <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="81">
         <v>3</v>
       </c>
       <c r="E6" s="13">
@@ -1624,7 +1724,7 @@
       <c r="M6" s="45">
         <v>3</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="80">
         <v>8</v>
       </c>
       <c r="Q6" s="46">
@@ -1635,6 +1735,9 @@
       </c>
       <c r="Y6" s="45">
         <v>3</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>6</v>
       </c>
       <c r="AC6" s="46">
         <v>9</v>
@@ -1837,45 +1940,1105 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="15:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>4</v>
+      </c>
+      <c r="AE15">
+        <v>5</v>
+      </c>
+      <c r="AF15">
+        <v>6</v>
+      </c>
+      <c r="AG15">
+        <v>7</v>
+      </c>
+      <c r="AH15">
+        <v>8</v>
+      </c>
+      <c r="AI15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1">
+        <v>8</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="27">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="28">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="28">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="50">
+        <v>2</v>
+      </c>
+      <c r="I17" s="50">
+        <v>2</v>
+      </c>
+      <c r="J17" s="50">
+        <v>2</v>
+      </c>
+      <c r="K17" s="50">
+        <v>2</v>
+      </c>
       <c r="O17" s="51"/>
       <c r="P17" s="51"/>
       <c r="Q17" s="51"/>
       <c r="R17" s="51"/>
       <c r="S17" s="51"/>
       <c r="T17" s="51"/>
-    </row>
-    <row r="18" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="46">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="37">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="38">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="38">
+        <v>5</v>
+      </c>
+      <c r="AI17" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="50">
+        <v>0</v>
+      </c>
+      <c r="D18" s="93">
+        <v>8</v>
+      </c>
+      <c r="E18" s="92">
+        <v>10</v>
+      </c>
+      <c r="F18" s="92">
+        <v>10</v>
+      </c>
+      <c r="G18" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="92">
+        <v>5</v>
+      </c>
+      <c r="I18" s="50">
+        <v>5</v>
+      </c>
+      <c r="J18" s="50">
+        <v>5</v>
+      </c>
+      <c r="K18" s="50">
+        <v>5</v>
+      </c>
       <c r="O18" s="51"/>
       <c r="P18" s="51"/>
       <c r="Q18" s="52"/>
       <c r="R18" s="52"/>
       <c r="S18" s="52"/>
       <c r="T18" s="51"/>
-    </row>
-    <row r="19" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="46">
+        <v>8</v>
+      </c>
+      <c r="AC18" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="85">
+        <v>9</v>
+      </c>
+      <c r="AF18" s="86">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="87">
+        <v>7</v>
+      </c>
+      <c r="AH18" s="42">
+        <v>7</v>
+      </c>
+      <c r="AI18" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="93">
+        <v>8</v>
+      </c>
+      <c r="E19" s="92">
+        <v>10</v>
+      </c>
+      <c r="F19" s="92">
+        <v>10</v>
+      </c>
+      <c r="G19" s="92">
+        <v>9</v>
+      </c>
+      <c r="H19" s="92">
+        <v>5</v>
+      </c>
+      <c r="I19" s="50">
+        <v>7</v>
+      </c>
+      <c r="J19" s="50">
+        <v>7</v>
+      </c>
+      <c r="K19" s="50">
+        <v>5</v>
+      </c>
       <c r="O19" s="51"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
       <c r="S19" s="52"/>
       <c r="T19" s="51"/>
-    </row>
-    <row r="20" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="80">
+        <v>8</v>
+      </c>
+      <c r="AC19" s="85">
+        <v>9</v>
+      </c>
+      <c r="AD19" s="85">
+        <v>9</v>
+      </c>
+      <c r="AE19" s="85">
+        <v>9</v>
+      </c>
+      <c r="AF19" s="86">
+        <v>5</v>
+      </c>
+      <c r="AG19" s="88">
+        <v>7</v>
+      </c>
+      <c r="AH19" s="44">
+        <v>7</v>
+      </c>
+      <c r="AI19" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="50">
+        <v>0</v>
+      </c>
+      <c r="D20" s="92">
+        <v>8</v>
+      </c>
+      <c r="E20" s="92">
+        <v>9</v>
+      </c>
+      <c r="F20" s="92">
+        <v>9</v>
+      </c>
+      <c r="G20" s="92">
+        <v>9</v>
+      </c>
+      <c r="H20" s="92">
+        <v>5</v>
+      </c>
+      <c r="I20" s="50">
+        <v>7</v>
+      </c>
+      <c r="J20" s="50">
+        <v>7</v>
+      </c>
+      <c r="K20" s="50">
+        <v>5</v>
+      </c>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
       <c r="R20" s="51"/>
       <c r="S20" s="51"/>
       <c r="T20" s="51"/>
-    </row>
-    <row r="21" spans="15:20" x14ac:dyDescent="0.4">
+      <c r="Y20">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="85">
+        <v>9</v>
+      </c>
+      <c r="AD20" s="85">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="89">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="89">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="35">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="50">
+        <v>0</v>
+      </c>
+      <c r="D21" s="92">
+        <v>0</v>
+      </c>
+      <c r="E21" s="92">
+        <v>9</v>
+      </c>
+      <c r="F21" s="92">
+        <v>9</v>
+      </c>
+      <c r="G21" s="92">
+        <v>11</v>
+      </c>
+      <c r="H21" s="92">
+        <v>5</v>
+      </c>
+      <c r="I21" s="50">
+        <v>5</v>
+      </c>
+      <c r="J21" s="50">
+        <v>5</v>
+      </c>
+      <c r="K21" s="50">
+        <v>5</v>
+      </c>
       <c r="O21" s="51"/>
       <c r="P21" s="51"/>
       <c r="Q21" s="51"/>
       <c r="R21" s="51"/>
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
+      <c r="Y21">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="87">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="90">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="85">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="86">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="87">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="38">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="92">
+        <v>1</v>
+      </c>
+      <c r="F22" s="92">
+        <v>1</v>
+      </c>
+      <c r="G22" s="92">
+        <v>1</v>
+      </c>
+      <c r="H22" s="92">
+        <v>2</v>
+      </c>
+      <c r="I22" s="50">
+        <v>6</v>
+      </c>
+      <c r="J22" s="50">
+        <v>6</v>
+      </c>
+      <c r="K22" s="50">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="86">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="87">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="90">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="86">
+        <v>2</v>
+      </c>
+      <c r="AG22" s="86">
+        <v>6</v>
+      </c>
+      <c r="AH22" s="31">
+        <v>6</v>
+      </c>
+      <c r="AI22" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="92">
+        <v>1</v>
+      </c>
+      <c r="F23" s="92">
+        <v>4</v>
+      </c>
+      <c r="G23" s="92">
+        <v>4</v>
+      </c>
+      <c r="H23" s="92">
+        <v>2</v>
+      </c>
+      <c r="I23" s="50">
+        <v>6</v>
+      </c>
+      <c r="J23" s="50">
+        <v>6</v>
+      </c>
+      <c r="K23" s="50">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="23">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="34">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="40">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="35">
+        <v>6</v>
+      </c>
+      <c r="AI23" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="50">
+        <v>1</v>
+      </c>
+      <c r="F24" s="50">
+        <v>4</v>
+      </c>
+      <c r="G24" s="50">
+        <v>4</v>
+      </c>
+      <c r="H24" s="50">
+        <v>2</v>
+      </c>
+      <c r="I24" s="50">
+        <v>6</v>
+      </c>
+      <c r="J24" s="50">
+        <v>6</v>
+      </c>
+      <c r="K24" s="50">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="24">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="25">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="50">
+        <v>1</v>
+      </c>
+      <c r="F25" s="50">
+        <v>4</v>
+      </c>
+      <c r="G25" s="50">
+        <v>4</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25">
+        <v>9</v>
+      </c>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="50">
+        <v>1</v>
+      </c>
+      <c r="F26" s="50">
+        <v>1</v>
+      </c>
+      <c r="G26" s="50">
+        <v>1</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B27" s="50">
+        <v>0</v>
+      </c>
+      <c r="C27" s="50">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="50">
+        <v>3</v>
+      </c>
+      <c r="F27" s="50">
+        <v>4</v>
+      </c>
+      <c r="G27" s="50">
+        <v>5</v>
+      </c>
+      <c r="H27" s="50">
+        <v>6</v>
+      </c>
+      <c r="I27" s="50">
+        <v>7</v>
+      </c>
+      <c r="J27" s="50">
+        <v>8</v>
+      </c>
+      <c r="K27" s="50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A28" s="50">
+        <v>0</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="50">
+        <v>2</v>
+      </c>
+      <c r="I28" s="50">
+        <v>2</v>
+      </c>
+      <c r="J28" s="50">
+        <v>2</v>
+      </c>
+      <c r="K28" s="50">
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A29" s="50">
+        <v>1</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="50">
+        <v>0</v>
+      </c>
+      <c r="D29" s="50">
+        <v>8</v>
+      </c>
+      <c r="E29" s="50">
+        <v>10</v>
+      </c>
+      <c r="F29" s="50">
+        <v>10</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="50">
+        <v>5</v>
+      </c>
+      <c r="I29" s="50">
+        <v>5</v>
+      </c>
+      <c r="J29" s="50">
+        <v>5</v>
+      </c>
+      <c r="K29" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="50">
+        <v>0</v>
+      </c>
+      <c r="D30" s="92">
+        <v>3</v>
+      </c>
+      <c r="E30" s="92">
+        <v>3</v>
+      </c>
+      <c r="F30" s="94">
+        <v>3</v>
+      </c>
+      <c r="G30" s="94">
+        <v>3</v>
+      </c>
+      <c r="H30" s="94">
+        <v>3</v>
+      </c>
+      <c r="I30" s="50">
+        <v>7</v>
+      </c>
+      <c r="J30" s="50">
+        <v>7</v>
+      </c>
+      <c r="K30" s="50">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A31" s="50">
+        <v>3</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="50">
+        <v>0</v>
+      </c>
+      <c r="D31" s="92">
+        <v>3</v>
+      </c>
+      <c r="E31" s="92">
+        <v>3</v>
+      </c>
+      <c r="F31" s="94">
+        <v>3</v>
+      </c>
+      <c r="G31" s="94">
+        <v>3</v>
+      </c>
+      <c r="H31" s="94">
+        <v>3</v>
+      </c>
+      <c r="I31" s="50">
+        <v>7</v>
+      </c>
+      <c r="J31" s="50">
+        <v>7</v>
+      </c>
+      <c r="K31" s="50">
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A32" s="50">
+        <v>4</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="50">
+        <v>0</v>
+      </c>
+      <c r="D32" s="94">
+        <v>0</v>
+      </c>
+      <c r="E32" s="94">
+        <v>9</v>
+      </c>
+      <c r="F32" s="94">
+        <v>9</v>
+      </c>
+      <c r="G32" s="94">
+        <v>11</v>
+      </c>
+      <c r="H32" s="94">
+        <v>5</v>
+      </c>
+      <c r="I32" s="50">
+        <v>5</v>
+      </c>
+      <c r="J32" s="50">
+        <v>5</v>
+      </c>
+      <c r="K32" s="50">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="50">
+        <v>5</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="94">
+        <v>1</v>
+      </c>
+      <c r="F33" s="94">
+        <v>1</v>
+      </c>
+      <c r="G33" s="94">
+        <v>1</v>
+      </c>
+      <c r="H33" s="94">
+        <v>2</v>
+      </c>
+      <c r="I33" s="50">
+        <v>6</v>
+      </c>
+      <c r="J33" s="50">
+        <v>6</v>
+      </c>
+      <c r="K33" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="50">
+        <v>6</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="94">
+        <v>1</v>
+      </c>
+      <c r="F34" s="94">
+        <v>4</v>
+      </c>
+      <c r="G34" s="94">
+        <v>4</v>
+      </c>
+      <c r="H34" s="94">
+        <v>2</v>
+      </c>
+      <c r="I34" s="50">
+        <v>6</v>
+      </c>
+      <c r="J34" s="50">
+        <v>6</v>
+      </c>
+      <c r="K34" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="50">
+        <v>7</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="50">
+        <v>1</v>
+      </c>
+      <c r="F35" s="50">
+        <v>4</v>
+      </c>
+      <c r="G35" s="50">
+        <v>4</v>
+      </c>
+      <c r="H35" s="50">
+        <v>2</v>
+      </c>
+      <c r="I35" s="50">
+        <v>6</v>
+      </c>
+      <c r="J35" s="50">
+        <v>6</v>
+      </c>
+      <c r="K35" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="50">
+        <v>8</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="50">
+        <v>1</v>
+      </c>
+      <c r="F36" s="50">
+        <v>4</v>
+      </c>
+      <c r="G36" s="50">
+        <v>4</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="50">
+        <v>9</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="50">
+        <v>1</v>
+      </c>
+      <c r="F37" s="50">
+        <v>1</v>
+      </c>
+      <c r="G37" s="50">
+        <v>1</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="50" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1893,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1995AD76-6733-4C2F-9E11-C08A40E92B8B}">
   <dimension ref="A1:AU13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1904,58 +3067,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="M1" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="Y1" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AK1" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
+      <c r="A1" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="M1" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="Y1" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AK1" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="95"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="95"/>
+      <c r="AO1" s="95"/>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="95"/>
+      <c r="AR1" s="95"/>
+      <c r="AS1" s="95"/>
+      <c r="AT1" s="95"/>
+      <c r="AU1" s="95"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A2" s="47"/>
